--- a/biology/Zoologie/Helophilus/Helophilus.xlsx
+++ b/biology/Zoologie/Helophilus/Helophilus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Helophilus est un genre d'insectes diptères du sous-ordre des Brachycera (les Brachycera sont des mouches muscoïdes aux antennes courtes), de la famille des Syrphidae.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Helophilus par leur aspect ressemblent aux guêpes. Tous les adultes ont un thorax rayé longitudinalement très typique associé à un abdomen rayé transversalement.
 </t>
@@ -542,20 +556,91 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Le genre a été décrit par l'entomologiste allemand Johann Wilhelm Meigen en 1822.
-Synonymie
-Asemosyrphus Bigot, 1882
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre a été décrit par l'entomologiste allemand Johann Wilhelm Meigen en 1822.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Helophilus</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Helophilus</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Synonymie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Asemosyrphus Bigot, 1882
 Pilinasica Malloch, 1922
 Palaeoxylota Hull, 1950
-Heliophilus Faust 1890
-Taxinomie
-Il existe deux sous-genres :
+Heliophilus Faust 1890</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Helophilus</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Helophilus</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il existe deux sous-genres :
 Helophilus (Helophilus)
 Helophilus affinis Wahlberg, 1844
 Helophilus bilinearis Williston, 1887
-Helophilus borealis Staeger, 1845[1]
+Helophilus borealis Staeger, 1845
 Helophilus bottnicus Wahlberg, 1844
 Helophilus celeber Osten Sacken, 1882
 Helophilus consimilis Malm, 1863
@@ -567,7 +652,7 @@
 Helophilus frutetorum (Fabricius, 1775)
 Helophilus groenlandicus (Fabricius, 1780)
 Helophilus hybridus Loew, 1846
-Helophilus insignis Violovitsh, 1979[1]
+Helophilus insignis Violovitsh, 1979
 Helophilus intentus Curran and Fluke, 1922
 Helophilus interpunctus (Harris, 1776)
 Helophilus kurentzovi (Violovitsh, 1960)
@@ -587,14 +672,14 @@
 Helophilus relictus (Curran &amp; Fluke, 1926)
 Helophilus rex (Curran &amp; Fluke, 1926)
 Helophilus sapporensis Matsumura, 1911
-Helophilus sibiricus Smirnov, 1923[1]
+Helophilus sibiricus Smirnov, 1923
 Helophilus stipatus Walker, 1849
 Helophilus transfugus (Linnaeus, 1758)
 Helophilus trivittatus (Fabricius, 1805)
-Helophilus turanicus Smirnov, 1923[1]
+Helophilus turanicus Smirnov, 1923
 Helophilus versicolor (Fabricius, 1794)
 Helophilus virgatus Coquillett, 1898
-Helophilus (Pilinasica)[2]
+Helophilus (Pilinasica)
 Helophilus antipodus Schiner, 1868
 Helophilus campbelli (Miller, 1921)
 Helophilus campbellicus Hutton, 1902
@@ -607,8 +692,43 @@
 Helophilus montanus (Miller, 1921)
 Helophilus seelandicus Gmelin, 1790
 Helophilus taruensis Miller, 1924
-Espèces rencontrées en Europe
-Helophilus affinis Wahlberg 1844
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Helophilus</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Helophilus</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Espèces rencontrées en Europe</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Helophilus affinis Wahlberg 1844
 Helophilus bottnicus Wahlberg 1844
 Helophilus continuus Loew 1854
 Helophilus groenlandicus (Fabricius 1780)
@@ -619,31 +739,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Helophilus</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Zoologie/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Helophilus</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Espèces fossiles</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Helophilus nothobombus Kotthoff and Schmid 2005
 Helophilus villeneuvi Théobald 1937</t>
